--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
     <sheet name="Hands" sheetId="1" r:id="rId2"/>
     <sheet name="MSS" sheetId="2" r:id="rId3"/>
+    <sheet name="Glyphs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Hand1</t>
   </si>
@@ -119,6 +120,42 @@
   </si>
   <si>
     <t>Egerton 2899</t>
+  </si>
+  <si>
+    <t>MMC</t>
+  </si>
+  <si>
+    <t>Mark MacConville</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>m-stroke</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>ocus</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>General suspension stroke (superscript)</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>lenition dot/tick</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>n-stroke</t>
   </si>
 </sst>
 </file>
@@ -470,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122E266D-D20C-4852-83E2-D65CF22069C7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,6 +529,14 @@
       </c>
       <c r="B2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -503,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,4 +703,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -710,7 +710,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
     <sheet name="Hands" sheetId="1" r:id="rId2"/>
     <sheet name="MSS" sheetId="2" r:id="rId3"/>
     <sheet name="Glyphs" sheetId="4" r:id="rId4"/>
+    <sheet name="ana" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Hand1</t>
   </si>
@@ -156,6 +157,39 @@
   </si>
   <si>
     <t>n-stroke</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t>pron</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>poss</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>dpron</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>adv</t>
   </si>
 </sst>
 </file>
@@ -709,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,4 +792,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Hand1</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>adv</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>ir superscript</t>
   </si>
 </sst>
 </file>
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,6 +793,14 @@
       </c>
       <c r="B5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +813,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Hand1</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>ir superscript</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -810,9 +813,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -873,6 +876,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -591,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Hand1</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>num</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>us abbreviation (;)</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -750,10 +756,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,6 +810,14 @@
       </c>
       <c r="B6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -597,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Hand1</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>us abbreviation (;)</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>ar abbreviation</t>
+  </si>
+  <si>
+    <t>g9</t>
+  </si>
+  <si>
+    <t>General suspension dot</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -756,10 +768,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,6 +830,22 @@
       </c>
       <c r="B7" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Hand1</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>General suspension dot</t>
+  </si>
+  <si>
+    <t>g10</t>
+  </si>
+  <si>
+    <t>acht/sed abbreviation</t>
   </si>
 </sst>
 </file>
@@ -768,10 +774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,6 +852,14 @@
       </c>
       <c r="B9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -27,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eystein Thanisch</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3000EC37-D944-4F8E-99C5-8C7C4E53909A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eystein Thanisch:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+E.g. The text is taken from an edition, the ms being illegible or unavailable and the editor has indicated that they are expanding an abbreviation but without giving details of what sort.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Hand1</t>
   </si>
@@ -223,19 +257,62 @@
   </si>
   <si>
     <t>acht/sed abbreviation</t>
+  </si>
+  <si>
+    <t>Eoghan Mac Pháil</t>
+  </si>
+  <si>
+    <t>Transcription 6</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>NLS 72.1.31</t>
+  </si>
+  <si>
+    <t>g0</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>g11</t>
+  </si>
+  <si>
+    <t>air abbreviation</t>
+  </si>
+  <si>
+    <t>vnoun</t>
+  </si>
+  <si>
+    <t>pref</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -616,7 +693,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,6 +782,12 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,7 +799,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,6 +839,9 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -773,168 +859,200 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Hand1</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>pref</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>Superscript c</t>
   </si>
 </sst>
 </file>
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,6 +968,14 @@
       </c>
       <c r="B12" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -869,7 +869,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Hand1</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Superscript c</t>
+  </si>
+  <si>
+    <t>arr abbreviation</t>
+  </si>
+  <si>
+    <t>g13</t>
   </si>
 </sst>
 </file>
@@ -866,10 +872,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,6 +982,14 @@
       </c>
       <c r="B13" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Hand1</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>g13</t>
+  </si>
+  <si>
+    <t>g14</t>
+  </si>
+  <si>
+    <t>nn-strokes</t>
   </si>
 </sst>
 </file>
@@ -872,10 +878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,6 +996,14 @@
       </c>
       <c r="B14" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eystein Thanisch:</t>
         </r>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E.g. The text is taken from an edition, the ms being illegible or unavailable and the editor has indicated that they are expanding an abbreviation but without giving details of what sort.</t>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Hand1</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>nn-strokes</t>
+  </si>
+  <si>
+    <t>g15</t>
+  </si>
+  <si>
+    <t>Superscript o</t>
+  </si>
+  <si>
+    <t>g16</t>
+  </si>
+  <si>
+    <t>Superscript u/v</t>
   </si>
 </sst>
 </file>
@@ -323,14 +335,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -878,10 +890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1016,22 @@
       </c>
       <c r="B15" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Hand1</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>Superscript u/v</t>
+  </si>
+  <si>
+    <t>g17</t>
+  </si>
+  <si>
+    <t>Superscript a</t>
+  </si>
+  <si>
+    <t>intj</t>
   </si>
 </sst>
 </file>
@@ -890,10 +899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,6 +1041,14 @@
       </c>
       <c r="B17" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1042,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,6 +1142,11 @@
         <v>74</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>Hand1</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>intj</t>
+  </si>
+  <si>
+    <t>g18</t>
+  </si>
+  <si>
+    <t>est abbreviation</t>
   </si>
 </sst>
 </file>
@@ -899,10 +905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,6 +1055,14 @@
       </c>
       <c r="B18" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Hand1</t>
   </si>
@@ -178,9 +178,6 @@
     <t>g3</t>
   </si>
   <si>
-    <t>General suspension stroke (superscript)</t>
-  </si>
-  <si>
     <t>g4</t>
   </si>
   <si>
@@ -332,6 +329,15 @@
   </si>
   <si>
     <t>est abbreviation</t>
+  </si>
+  <si>
+    <t>General suspension stroke</t>
+  </si>
+  <si>
+    <t>g19</t>
+  </si>
+  <si>
+    <t>uir abbreviation</t>
   </si>
 </sst>
 </file>
@@ -828,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +891,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,20 +911,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,127 +948,135 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
-        <v>89</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1083,82 +1097,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Hand1</t>
   </si>
@@ -226,9 +226,6 @@
     <t>g6</t>
   </si>
   <si>
-    <t>ir superscript</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
@@ -338,6 +335,33 @@
   </si>
   <si>
     <t>uir abbreviation</t>
+  </si>
+  <si>
+    <t>Hand9</t>
+  </si>
+  <si>
+    <t>Eoghan Mac Gilleoin</t>
+  </si>
+  <si>
+    <t>Hand10</t>
+  </si>
+  <si>
+    <t>Niall Mac Mhuirich</t>
+  </si>
+  <si>
+    <t>Transcription 9</t>
+  </si>
+  <si>
+    <t>Transcription 12</t>
+  </si>
+  <si>
+    <t>g20</t>
+  </si>
+  <si>
+    <t>Superscript e</t>
+  </si>
+  <si>
+    <t>Superscript ir</t>
   </si>
 </sst>
 </file>
@@ -741,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,10 +858,32 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,20 +957,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,111 +1018,119 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
-        <v>91</v>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1157,22 +1211,22 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Hand1</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>Superscript ir</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>g22</t>
+  </si>
+  <si>
+    <t>er abbreviation</t>
+  </si>
+  <si>
+    <t>err abbreviation</t>
   </si>
 </sst>
 </file>
@@ -957,10 +969,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,6 +1143,22 @@
       </c>
       <c r="B21" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
   <si>
     <t>Hand1</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>err abbreviation</t>
+  </si>
+  <si>
+    <t>tit</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>g23</t>
+  </si>
+  <si>
+    <t>Double general suspension stroke</t>
   </si>
 </sst>
 </file>
@@ -969,10 +981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,6 +1171,14 @@
       </c>
       <c r="B23" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,6 +1277,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>Hand1</t>
   </si>
@@ -386,6 +386,24 @@
   </si>
   <si>
     <t>Double general suspension stroke</t>
+  </si>
+  <si>
+    <t>g24</t>
+  </si>
+  <si>
+    <t>Superscript d</t>
+  </si>
+  <si>
+    <t>g25</t>
+  </si>
+  <si>
+    <t>Superscript i</t>
+  </si>
+  <si>
+    <t>g26</t>
+  </si>
+  <si>
+    <t>da abbreviation</t>
   </si>
 </sst>
 </file>
@@ -981,10 +999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,6 +1197,30 @@
       </c>
       <c r="B24" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>Hand1</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t>da abbreviation</t>
+  </si>
+  <si>
+    <t>g27</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>g28</t>
+  </si>
+  <si>
+    <t>con abbreviation</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,6 +1233,22 @@
       </c>
       <c r="B27" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>Hand1</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>con abbreviation</t>
+  </si>
+  <si>
+    <t>ptcp</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1358,11 @@
         <v>105</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ana" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
   <si>
     <t>Hand1</t>
   </si>
@@ -419,6 +420,18 @@
   </si>
   <si>
     <t>ptcp</t>
+  </si>
+  <si>
+    <t>g29</t>
+  </si>
+  <si>
+    <t>Superscript t</t>
+  </si>
+  <si>
+    <t>g30</t>
+  </si>
+  <si>
+    <t>q abbreviation</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,6 +1265,22 @@
       </c>
       <c r="B29" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -13,13 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
-    <sheet name="Hands" sheetId="1" r:id="rId2"/>
+    <sheet name="Hand " sheetId="1" r:id="rId2"/>
     <sheet name="MSS" sheetId="2" r:id="rId3"/>
     <sheet name="Glyphs" sheetId="4" r:id="rId4"/>
     <sheet name="ana" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>Hand1</t>
   </si>
@@ -347,9 +346,6 @@
     <t>Hand10</t>
   </si>
   <si>
-    <t>Niall Mac Mhuirich</t>
-  </si>
-  <si>
     <t>Transcription 9</t>
   </si>
   <si>
@@ -432,6 +428,42 @@
   </si>
   <si>
     <t>q abbreviation</t>
+  </si>
+  <si>
+    <t>Hand11</t>
+  </si>
+  <si>
+    <t>Hand12</t>
+  </si>
+  <si>
+    <t>Hand13</t>
+  </si>
+  <si>
+    <t>Hand M in NLS Adv. MS. 72.1.33</t>
+  </si>
+  <si>
+    <t>Transcription 5</t>
+  </si>
+  <si>
+    <t>Domhnall MacMhuirich</t>
+  </si>
+  <si>
+    <t>Niall MacMhuirich</t>
+  </si>
+  <si>
+    <t>Lachlan Mór Mac Gilla Eain</t>
+  </si>
+  <si>
+    <t>Hand14</t>
+  </si>
+  <si>
+    <t>James Beaton</t>
+  </si>
+  <si>
+    <t>g31</t>
+  </si>
+  <si>
+    <t>Superscript l</t>
   </si>
 </sst>
 </file>
@@ -835,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,7 +974,7 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,10 +982,51 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1161,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,90 +1270,98 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
         <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
         <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
         <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
         <v>114</v>
-      </c>
-      <c r="B28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
         <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
         <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="B31" t="s">
-        <v>122</v>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1381,15 +1462,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
   <si>
     <t>Hand1</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>Superscript l</t>
+  </si>
+  <si>
+    <t>g32</t>
+  </si>
+  <si>
+    <t>et reliqua</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,6 +1371,14 @@
       </c>
       <c r="B32" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,6 +1490,11 @@
         <v>117</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
   <si>
     <t>Hand1</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>g33</t>
+  </si>
+  <si>
+    <t>Vertical m</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,6 +1385,14 @@
       </c>
       <c r="B33" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>Hand1</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Vertical m</t>
+  </si>
+  <si>
+    <t>g34</t>
+  </si>
+  <si>
+    <t>pro abbreviation</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,6 +1399,14 @@
       </c>
       <c r="B34" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
   <si>
     <t>Hand1</t>
   </si>
@@ -485,6 +485,30 @@
   </si>
   <si>
     <t>pro abbreviation</t>
+  </si>
+  <si>
+    <t>g35</t>
+  </si>
+  <si>
+    <t>ligature</t>
+  </si>
+  <si>
+    <t>g36</t>
+  </si>
+  <si>
+    <t>ac ligature</t>
+  </si>
+  <si>
+    <t>p with tail</t>
+  </si>
+  <si>
+    <t>g37</t>
+  </si>
+  <si>
+    <t>g38</t>
+  </si>
+  <si>
+    <t>ur abbreviation</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,6 +1431,38 @@
       </c>
       <c r="B35" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
   <si>
     <t>Hand1</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>ur abbreviation</t>
+  </si>
+  <si>
+    <t>g39</t>
+  </si>
+  <si>
+    <t>eile (ee)</t>
+  </si>
+  <si>
+    <t>g40</t>
+  </si>
+  <si>
+    <t>Superscript b</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,6 +1475,22 @@
       </c>
       <c r="B39" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
     <t>Hand1</t>
   </si>
@@ -521,6 +521,30 @@
   </si>
   <si>
     <t>Superscript b</t>
+  </si>
+  <si>
+    <t>g41</t>
+  </si>
+  <si>
+    <t>l with suspension stroke</t>
+  </si>
+  <si>
+    <t>Hand 15</t>
+  </si>
+  <si>
+    <t>Unk. Hand in NLS Adv. MS. 72.1.33</t>
+  </si>
+  <si>
+    <t>g42</t>
+  </si>
+  <si>
+    <t>Superscript s</t>
+  </si>
+  <si>
+    <t>g43</t>
+  </si>
+  <si>
+    <t>Subscript i</t>
   </si>
 </sst>
 </file>
@@ -924,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,6 +1107,17 @@
         <v>131</v>
       </c>
       <c r="C14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1157,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,6 +1526,30 @@
       </c>
       <c r="B41" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
   <si>
     <t>Hand1</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>Subscript i</t>
+  </si>
+  <si>
+    <t>g44</t>
+  </si>
+  <si>
+    <t>s with cross-stroke</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,6 +1556,14 @@
       </c>
       <c r="B44" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
   <si>
     <t>Hand1</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>s with cross-stroke</t>
+  </si>
+  <si>
+    <t>g45</t>
+  </si>
+  <si>
+    <t>l with suspension stroke (vel)</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,6 +1570,14 @@
       </c>
       <c r="B45" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="167">
   <si>
     <t>Hand1</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>l with suspension stroke (vel)</t>
+  </si>
+  <si>
+    <t>g46</t>
+  </si>
+  <si>
+    <t>ir abbreviation</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,6 +1584,14 @@
       </c>
       <c r="B46" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="174">
   <si>
     <t>Hand1</t>
   </si>
@@ -376,9 +376,6 @@
     <t>tit</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>g23</t>
   </si>
   <si>
@@ -563,6 +560,30 @@
   </si>
   <si>
     <t>ir abbreviation</t>
+  </si>
+  <si>
+    <t>Hand16</t>
+  </si>
+  <si>
+    <t>Hand17</t>
+  </si>
+  <si>
+    <t>Hand18</t>
+  </si>
+  <si>
+    <t>Rev. John Beaton</t>
+  </si>
+  <si>
+    <t>Neil Beaton</t>
+  </si>
+  <si>
+    <t>Dubhghall Albanach mac mhic Cathail</t>
+  </si>
+  <si>
+    <t>Transcription 4</t>
+  </si>
+  <si>
+    <t>prep</t>
   </si>
 </sst>
 </file>
@@ -966,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1094,7 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,62 +1102,98 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1212,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,194 +1461,194 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
         <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
         <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
         <v>115</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
         <v>118</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
         <v>120</v>
-      </c>
-      <c r="B31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
         <v>132</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
         <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
         <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
         <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
         <v>147</v>
-      </c>
-      <c r="B39" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
         <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
         <v>151</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
         <v>153</v>
-      </c>
-      <c r="B42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
         <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
         <v>159</v>
-      </c>
-      <c r="B44" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
         <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
         <v>163</v>
-      </c>
-      <c r="B46" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
         <v>165</v>
-      </c>
-      <c r="B47" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1602,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,22 +1747,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1269,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>Hand1</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>prep</t>
+  </si>
+  <si>
+    <t>g47</t>
+  </si>
+  <si>
+    <t>b with crosstroke (ben)</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,6 +1655,14 @@
       </c>
       <c r="B47" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
   <si>
     <t>Hand1</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>b with crosstroke (ben)</t>
+  </si>
+  <si>
+    <t>g48</t>
+  </si>
+  <si>
+    <t>uir (curly descender with cross-stroke)</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,6 +1669,14 @@
       </c>
       <c r="B48" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="180">
   <si>
     <t>Hand1</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>uir (curly descender with cross-stroke)</t>
+  </si>
+  <si>
+    <t>g49</t>
+  </si>
+  <si>
+    <t>k abbreviation</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,6 +1683,14 @@
       </c>
       <c r="B49" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{60D88FB1-25E8-40EC-8825-1E042793E2CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="182">
   <si>
     <t>Hand1</t>
   </si>
@@ -602,6 +603,12 @@
   </si>
   <si>
     <t>k abbreviation</t>
+  </si>
+  <si>
+    <t>g50</t>
+  </si>
+  <si>
+    <t>apostrophe</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1691,6 +1698,14 @@
       </c>
       <c r="B50" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{60D88FB1-25E8-40EC-8825-1E042793E2CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6FD2D490-1D34-4A59-ACEE-1D3DCD3A9575}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6FD2D490-1D34-4A59-ACEE-1D3DCD3A9575}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D51E4D03-4653-4D2E-8330-211C00D4119B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Glyphs" sheetId="4" r:id="rId4"/>
     <sheet name="ana" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
   <si>
     <t>Hand1</t>
   </si>
@@ -609,6 +609,15 @@
   </si>
   <si>
     <t>apostrophe</t>
+  </si>
+  <si>
+    <t>Hand19</t>
+  </si>
+  <si>
+    <t>Eoin mac Domhnaill Ó Conchubuir</t>
+  </si>
+  <si>
+    <t>Transcription 14</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,6 +1228,17 @@
       </c>
       <c r="C18" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D51E4D03-4653-4D2E-8330-211C00D4119B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CCD3C36-963F-43AF-8418-D49B67B70CDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="189">
   <si>
     <t>Hand1</t>
   </si>
@@ -618,6 +618,18 @@
   </si>
   <si>
     <t>Transcription 14</t>
+  </si>
+  <si>
+    <t>g51</t>
+  </si>
+  <si>
+    <t>x abbreviation</t>
+  </si>
+  <si>
+    <t>g52</t>
+  </si>
+  <si>
+    <t>diagonal overstrokr</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC96CB5E-8856-4282-8506-D0186FBEACCB}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1312,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,6 +1738,22 @@
       </c>
       <c r="B51" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CCD3C36-963F-43AF-8418-D49B67B70CDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BD0E6FD-4B60-4BB3-B87C-7135F5F88E51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
@@ -629,7 +629,7 @@
     <t>g52</t>
   </si>
   <si>
-    <t>diagonal overstrokr</t>
+    <t>diagonal overstroke</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BD0E6FD-4B60-4BB3-B87C-7135F5F88E51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B08523F6-C9CC-491F-B0B6-777B309B026A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
   <si>
     <t>Hand1</t>
   </si>
@@ -630,6 +630,12 @@
   </si>
   <si>
     <t>diagonal overstroke</t>
+  </si>
+  <si>
+    <t>g53</t>
+  </si>
+  <si>
+    <t>Double character</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,6 +1760,14 @@
       </c>
       <c r="B53" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B08523F6-C9CC-491F-B0B6-777B309B026A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C557AAA3-E1F3-46BB-B0DC-546638B42A42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
   <si>
     <t>Hand1</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>Double character</t>
+  </si>
+  <si>
+    <t>interr</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454430F-1798-4EA5-9464-01065034EA9C}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1886,6 +1889,11 @@
         <v>173</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C557AAA3-E1F3-46BB-B0DC-546638B42A42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64EF34E3-E590-402A-BA11-B21339B6BC02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
   <sheets>
     <sheet name="Resps" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="196">
   <si>
     <t>Hand1</t>
   </si>
@@ -639,6 +639,18 @@
   </si>
   <si>
     <t>interr</t>
+  </si>
+  <si>
+    <t>g54</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>g55</t>
+  </si>
+  <si>
+    <t>da with stroke</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,6 +1783,22 @@
       </c>
       <c r="B54" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64EF34E3-E590-402A-BA11-B21339B6BC02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DC95496-E9BA-45E7-B5C7-B6C55A87718B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t>Hand1</t>
   </si>
@@ -638,9 +638,6 @@
     <t>Double character</t>
   </si>
   <si>
-    <t>interr</t>
-  </si>
-  <si>
     <t>g54</t>
   </si>
   <si>
@@ -651,6 +648,15 @@
   </si>
   <si>
     <t>da with stroke</t>
+  </si>
+  <si>
+    <t>interrog</t>
+  </si>
+  <si>
+    <t>g56</t>
+  </si>
+  <si>
+    <t>cc digraph</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,18 +1793,26 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
         <v>192</v>
-      </c>
-      <c r="B55" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" t="s">
         <v>194</v>
       </c>
-      <c r="B56" t="s">
-        <v>195</v>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1933,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/xmlid lists.xlsx
+++ b/xmlid lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\faclair-manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DC95496-E9BA-45E7-B5C7-B6C55A87718B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BCE5CA6-40EC-432E-934D-2F745C989255}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{F2FD37ED-5505-4273-997E-CED0D63E6282}"/>
   </bookViews>
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC8ACE-6DAF-46E3-8EE2-C041D28A1119}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
